--- a/posts.xlsx
+++ b/posts.xlsx
@@ -460,20 +460,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>73471033</t>
+          <t>73481395</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>How to extract dependency relations (depency grammer) between POS tags?</t>
+          <t>Pandas df plot x-axis date labels reformatting</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                Currently i am working on a project and need some basic idea to solve it.
-I am thinking of implementing a dependency relation extractor by myself so it can show that there is or there is not a ...
-            </t>
+          <t>would appreciate any help as I haven't found any questions covering this. I'm plotting a line graph with date on x axis: df = pd.read_csv('random.csv') df.plot('date', 'y') plt.xlabel('Dates') plt....</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,42 +485,29 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hamid Roghani</t>
+          <t>pablotoucan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>73470988</t>
+          <t>73481370</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>How to assign the records of an array to a JSON parameter?</t>
+          <t>Going to Specific Location using Neural Network in ROS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I have the following array:
-[
- {'type': 'A1'},
- {
-   'filter': {
-      'type': 'A2',
-      'data': [{'key': 'name_1', 'value': 'a'}, {'key': 'name_2', 'value': 'a'}]
-   }
- },
- {
-   'filter': {
-      '...
-            </t>
+          <t>i am developing a program that can be used to move the turtlebot to specific location using neural network with lidar sensors. in this program i have some problem, can move the turtlebot and avoid the ...</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -538,31 +522,29 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fluxy</t>
+          <t>Anto</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>73470973</t>
+          <t>73481366</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>How to take specific values from one dataframe and put in another pandas</t>
+          <t>Python: sort a list of dictionary using mutliple keys</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                There are two dataframes(df and dfi) and I'm trying to locate  those user_id s which are same in both dataframes and want to create new column in df named new_country in which  I will save the ...
-            </t>
+          <t>I have a  list of dictionary of the previous 12 months values.   I would like to sort it based on year and then month, without importing any extra libraries. Current Input [{'key': '2021 Mar', 'value':...</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,34 +559,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bhawani Rabisankar Sahoo</t>
+          <t>123456</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>73470937</t>
+          <t>73481305</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Python: TCP connection to 100s of devices</t>
+          <t>How can I find google flights URL query parameters?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I have a 3 different systems in action.
-System Overview Diagram
-I have a server running on cloud which communicate via MQTT protocol to Application.
-There is Device which connects to Application via ...
-            </t>
+          <t>I have been trying to scrape google flights: I am using selenium python to automate google flights(https://www.google.com/travel/flights). But selenium is slow and sometimes it's hard to automate a ...</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -619,32 +596,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>cadmus</t>
+          <t>Sorower Hossan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>73470933</t>
+          <t>73481302</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>getting "'NoneType' object has no attribute 'send" in loop</t>
+          <t>List object not callable when calculating temperatues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                Im pretty sure that Im calling loop after bot ready. Reddit part works just fine. I dont get what is causing the error
-reddit = praw.Reddit(client_id = config.client_id,client_secret = config....
-            </t>
+          <t>Im trying to calculate the minimum temperature, but when I try to print it, It says that the min is equal to the value returned by the function but i get an error like this: TypeError: 'list' object ...</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -659,35 +633,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MartAyiKoalasi</t>
+          <t>Nano Casas</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>73470932</t>
+          <t>73481253</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>how to sum model in Django rest Api</t>
+          <t>Discord.ext checking if user has manage message permissions?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I am new to Django rest Api devlopment I want to sum rent_amount, bijli_bill, other_amount and get value as Total amount, i dont know to add them pls help
-I want value like this
-{
-"id": 1,
-&amp;...
-            </t>
+          <t>For my discord bot I have a clr command and I need to see if the user who used the command has permissions to manage messages. How can I do that? (New To Discord.ext) from discord.ext import commands ...</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -707,26 +675,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Punit Kumar</t>
+          <t>RRTropical</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>73470898</t>
+          <t>73481249</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ajax call to python data</t>
+          <t>Jupyter notebook executions turn grey in Visual studio code</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I'm trying to scrape several websites with using requests package / API calls. Now I'm trying to scrape this website : https://sport.circus.be/en/sport/sports-bets/844/227875758 but this is using AJAX ...
-            </t>
+          <t>I am trying to execute python code in VS code enabling jupyter notebook execution.Repeatedly the execution screen turns gray which makes the output invisible with the headers.Code will be still ...</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -741,36 +707,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Stef Renneboog</t>
+          <t>VIDYA RENUKA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>73470895</t>
+          <t>73481245</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Which python platform is best for redirecting the backend code to a website?</t>
+          <t>Incorrect Context Appearing in Django Project</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I am going to code in python . this code has to redirect to a website and do Machine leering algorithm. i.e., auto fill of form . so which platform is best ?
-            </t>
+          <t>I am creating a workout project where for every workout there is a list of exercises and for every exercise there is a list of sets which has specific weights and reps. Here is the model for more ...</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -780,32 +744,29 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Anu Priya</t>
+          <t>A_K</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>73470879</t>
+          <t>73481229</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sparql result dump: JSONDecodeError: Expecting value: line 1 column 1 (char 0)</t>
+          <t>What is the best practice for a re-pull from git?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                trying to wrap a working query into the python code to avoid the time-out issue, but get the error JSONDecodeError: Expecting value: line 1 column 1 (char 0)
-could someone check what's wrong in there? ...
-            </t>
+          <t>I'm currently working with django and python from git repo. It is understandable that I should pull and establish a virtual environment (venv) in the cloned directory. I also had installed all the ...</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -820,116 +781,103 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Elart</t>
+          <t>shanksfk</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>73470873</t>
+          <t>73481220</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>i have accidentally uninstalled all packages in python</t>
+          <t>Removing index from pandas data frame on print</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I have accidentally deleted all my Python packages with this command:
-pip uninstall -r requirements.txt
-Is there an easy way to reinstall all of them?
-            </t>
+          <t>I'm really struggling to get this to print the way I want to. I've read through the documentation on removing index, but it seems like it still shows up. Here is my code: quotes = pd.read_csv("...</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>jojo_hal</t>
+          <t>Dragnipur</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>73470850</t>
+          <t>73481208</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TypeError: __init__() got an unexpected keyword argument 'categorical_features' ML</t>
+          <t>Failed to import DolphinDB Python API</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                i have this code because i'm trying to transform a "0" in a "0 0 0", like
-#0 -&gt; 000
-#1 -&gt; 010
-#2 -&gt; 001
-onehotencoder = OneHotEncoder(categorical_features = [0,1,3,5,8,9,...
-            </t>
+          <t>Environment: Windows, Python 3.8.0 pip install dolphindb has been executed, but it failed to import dolphindb in Python. &gt;&gt;&gt; import dolphindb as ddb  Traceback (most recent call last):    ...</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>gab119</t>
+          <t>Eva Gao</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>73470829</t>
+          <t>73481181</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>There is no function named Download() in pytube module</t>
+          <t>How to remove background from an image and set outline using python?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I Was Trying To Make A Youtube Video And Audio Downloader but when I Call The download() function It Says mp4_video = YouTube(get_link).streams.get_highest_resolution.download()
-AttributeError: '...
-            </t>
+          <t>What I am going to do  Remove background from an image (removed area should be transparent) Add a white outline to the image  I investigate ways to remove background from images and found several ways ...</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -944,118 +892,103 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ammar Ehab</t>
+          <t>Tony Wayne</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>73470799</t>
+          <t>73481169</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Geocoding: ValueError: Columns must be same length as key</t>
+          <t>What is the deeper reason I cannot call a function with named arguments in C/C++ but I can do so in Python?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                def my_geocoder(row):
-try:
-point = geolocator.geocode(row).point
-return pd.DataFrame({'Latitude': point.latitude, 'Longitude': point.longitude})
-except:
-return None
-NoVA_Properties[['Latitude', '...
-            </t>
+          <t>In Python, I can call a function with named arguments as below. def sum (i1,i2):     return (i1 + i2)  print (sum(i1 = 2,i2 = 3))  However in C/C++ I cannot: #include &lt;iostream&gt;  using namespace ...</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Abas Kasa</t>
+          <t>sidewind</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>73470791</t>
+          <t>73481166</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>comment puis je récupérer les informations rentré dans un modal discord.py 2.0 [closed]</t>
+          <t>Using eval() to assess user input and some condition. What alternatives?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                Comme l'indique la question, j'aimerais récuperer des informations rentrés dans un modal, et également vérifier que l'utilisateur ne fait pas cancel avant de poursuivre le code. Actuellement j'ai ça :
-...
-            </t>
+          <t>First, to provide some context, I am designing a console based version of Blackjack for entertainment and learning purposes.The code below was my solution to evaluate different conditions given user ...</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Maxistyle</t>
+          <t>Paulo Martins</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>73470777</t>
+          <t>73481162</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Using Google Speadsheet API</t>
+          <t>How to let if fuction output only one output in python?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I am trying to use Google Spreadsheet API to automate our reporting process (which is being handled manually). I have created Service Account and downloaded a json file.
-import google.auth
-from ...
-            </t>
+          <t>I am trying to use if function to classify the items into 3 categories in python. My code is as follows. WBS4_ELEMENT_list_0 = ['F.1122023.117.2.001', 'F.1122012.024.2.001', 'F.1622016.AET.2.001', 'F....</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1065,36 +998,34 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Viet Nguyen</t>
+          <t>CanaryTheBird</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>73470762</t>
+          <t>73481160</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Django can't add new item to another database on admin site</t>
+          <t>convert an array of integers to an array of floats</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I'm using two databases to create an app and everything looks fine, I can change, delete the existing item but can't add new item to other database table on the admin site. The data should be stored ...
-            </t>
+          <t>Given any integer n convert it to a float 0.n #input [11 22 5 1 68 17 5 4 558]  #output [0.11  0.22  0.5   0.1   0.68  0.17  0.5   0.4   0.558]  Is there a way in numpy to do the following. import ...</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1104,36 +1035,34 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>David L</t>
+          <t>codeLearner</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>73470761</t>
+          <t>73481153</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Looking to add a function that will terminate the program by typing 'exit'</t>
+          <t>AttributeError: 'DataFrame' object has no attribute 'explode'</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                Right now I have working code that successfully asks the user if they would like to continue on with the program after each input. What I would like to do, however, is instead to allow the user to ...
-            </t>
+          <t>My code is throwing this error when I try to run it, and I don't understand why. I'm confused as to why it's throwing an AttributeError when the line clearly calls .explode(...) as a function. Any ...</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1143,37 +1072,34 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Garrett</t>
+          <t>wheeeee</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>73470758</t>
+          <t>73481132</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>how to use allow origin regex pattern in jupyter lab config</t>
+          <t>How to get data from views to consumers py. Django</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                Hi I am trying to configure jupyter lab to only allow access from certain IPs. I know that I can set
-c.ServerApp.allow_origin = '*' in the config file at ~/.jupyter/jupyter_lab_config.py but I worry ...
-            </t>
+          <t>I wanted to get the data from my views.py def index(request):     if request.method == 'POST':         post_data = json.loads(request.body.decode("utf-8"))         value = post_data.get('...</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1188,37 +1114,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>v.tralala</t>
+          <t>Cason Mercadejas</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>73470727</t>
+          <t>73481122</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Syntax error with colon after the if statement [closed]</t>
+          <t>Using google colab forms input as dropdown, can I put the read file and add on the total list?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                [I am in day 3 of python and designing a love calculator. The code below shows a weird syntax error on the colon on the first if statement. where could the problem be?
-I can't seem to find solutions ...
-            </t>
+          <t>I using google colab to share my code with people who don't know Python at all. To make it easy, I adapt forms into the cell which makes be able to select the options and parameters. parameters = &amp;...</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1228,34 +1151,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Wiz98234</t>
+          <t>Gangil Seo</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>73470722</t>
+          <t>73481121</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>How to read the image through opencv and send it to zxing for detection instead of using the image path?</t>
+          <t>Optimizer Adagrad from Scratch in Python-Error</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                How to read the image through opencv and send it to zxing for detection instead of using the image path?
-reader = zxing.BarCodeReader()
-qrcode = reader.decode(img_path)
-I want to use the code as ...
-            </t>
+          <t>I try to implement Adagrad algorithm with the next code: def back_propagate_Adagrad(error, learning_rate,eps):    self.cache=np.zeros(len(self.dW)+1)     for i in reversed(range(len(self.dW))):       ...</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1270,118 +1188,103 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SunWenkui</t>
+          <t>Al.Vioky</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>73470721</t>
+          <t>73481104</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>join dataframes by iterating through dictionary</t>
+          <t>how to correct this code to verify for all the a's in the code to check for the sample code?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                import os
-import glob
-from pyspark.sql import functions as F
-result = get_csv_files("/test")
-d= {} 
-i = 1
-# loop over the list of csv files
-for k,v in result.items():
-    df =   spark.read....
-            </t>
+          <t>The following program calculates the number of input strings with letter ‘a’, and end the program when the input string is “####”. Here is an expected sample run: enter a string (enter #### to stop): ...</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Poola Tony</t>
+          <t>Aishwarya Anand</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>73470705</t>
+          <t>73481094</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>I'm working on some project in which I should make a connection between an attacker and a victim on pycharm and got some issue with my code</t>
+          <t>How do I create a new module in django and register the classes in that module</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                i'm doing it by 'socket', and the connection was successfully made but my goal is to let the attacker(server) search for files of the victim's and so I planed doing it by 'os.walk' and for that I need ...
-            </t>
+          <t>I want to create a new module and set of middleware classes in my app.  I created a subfolder "middleware" and put my python classes there in separate files.  But when I try to access them ...</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>נטע שפר</t>
+          <t>Mike Oliver</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>73470692</t>
+          <t>73481092</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Blocking issue with pandas_datareader in Anaconda - "conda install -c anaconda pandas-datareader" not fixing it</t>
+          <t>How to pull values from JSON into pandas dataframe using a string as the index value</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I have a blocking issue with pandas_datareader (Windows) installed with Anaconda/Jupyter. The solutions proposed in other StackOverflow posts are not working as following described.
-This is a simple ...
-            </t>
+          <t>I am looking to build a dataframe utilizing certain data from a JSON with multiple nested dictionaries. An example of the format of the JSON is as follows: "leagueYear": "2021",    ...</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1396,38 +1299,34 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>fede72bari</t>
+          <t>Tim D</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>73470687</t>
+          <t>73481090</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Integers not tuple [closed]</t>
+          <t>Drag and drop from QListWidget to QGraphicsItem</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I want to delete certain elements from my 2d array. I try to achieve that using the following code:
-    trackx=[[x[i],(z[i]-1)*2] for i in range(steps)]## Track projection on X
-    trackx=np.delete(...
-            </t>
+          <t>I'm looking for how i can do the same thing like this : https://www.walletfox.com/course/dragdroplistscene.php with Python with PyQt5 library, but i don't know how i can do it. How i can do a subclass ...</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1437,31 +1336,29 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>George Demeteiou</t>
+          <t>Ronaldonizuka</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>73470683</t>
+          <t>73481089</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>yolov7 Object Detector</t>
+          <t>Fast API request hangs when passing parameters to another endpoint</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I used yolov5 for my object detection. Now I am trying to improve it to YoloV7. I trained my dataset and convert it from .pt to .onnx. But I cannot implement it to my code. I shared the code in the ...
-            </t>
+          <t>When I reference another endpoint inside an async function in my Fast API script, that endpoint will hang and fail to load. Despite http://127.0.0.1:8000/data?nums=1&amp;nums=2&amp;nums=3 returning ...</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1476,37 +1373,34 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>techgtec</t>
+          <t>xTrevi</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>73470645</t>
+          <t>73481059</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Why connection is failed [closed]</t>
+          <t>Memory leak in AWS Lambda when calling local folder</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I try to make auto post app for Wordpress. And when i run this programm i get this error:
-HTTPSConnectionPool(host='localhost', port=443): Max retries exceeded with url: /wordpress/wp-json/wp/v2/posts ...
-            </t>
+          <t>I have a python script that I'm currently using just to figure out how to use a docker container image and deploy it to lambda using a few libraries. The code is as follows: from transformers import ...</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1516,31 +1410,30 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>anonimus</t>
+          <t>shkadov</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>73470641</t>
+          <t>73481035</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pandas, .value_counts</t>
+          <t>Can't not use kwargs in tk.CheckButton [duplicate]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                As I was trying to pass two lines that is of theoretically identical results, somehow those produced different outcomes. I have been doing rage checking over the line, the definition of the functions ...
-            </t>
+          <t>This is an qusition on tk.Checkbutton, i code a function to setting checkbutton from tkinter import Checkbutton, PhotoImage, Tk, BooleanVar+ def setCheckButton(root):     on_image = PhotoImage(width=...</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1555,32 +1448,29 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Steven Gee</t>
+          <t>Kenisnotme</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>73470640</t>
+          <t>73481033</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>how to check/trace why a python script delays to exit</t>
+          <t>How to make post request to list of webhooks at the same time python</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I have a python script that does some network stuff with the requests library. My issue is that for some reason the python script doesn't seem to exit immediately after it finishes.
-I have measured ...
-            </t>
+          <t>i'm trying to make something that will take a url of a discord webhook and make a post request to it while also continuing in the loop for example:     await kdot.create_webhook(name='K.Dot#0001')     ...</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1595,78 +1485,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Kassadin</t>
+          <t>This Shit</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>73470623</t>
+          <t>73481028</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Python 3.x Convert nested list of elements into nested dictionary with max recursion</t>
+          <t>error with aiter in telethon bot in python</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I would like to convert a nested list like this:
-["Pie", ["Sugar", "Biscuit", ["Egg"] ], "Cocoa", []]
-to a nested dictionary like this:
-{ "Pie&amp;...
-            </t>
+          <t>i'm trying to loop inside my async function for my bot, and for the autodestruction function i have to iterate all the users and check if the user is an admin, done with this code: all_participants = ...</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dec04</t>
+          <t>ElToreador</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>73470544</t>
+          <t>73481011</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>How to assign to a variable an infinite value in gekko?</t>
+          <t>I want to upload my logs from ec2 to s3 through boto3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I am trying to assign an infinite value to a variable of gekko in order to help the solver to find a solution. I have tried with the numpy's infinite value and python's own infinite but it is still ...
-            </t>
+          <t>My log name contains the date, and I want to collect and upload log data with those dates. But I dont know about python its my first time in my life help me and Thank you for your advise</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1676,70 +1559,70 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>firaitz</t>
+          <t>neeson.lee</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>73470539</t>
+          <t>73480989</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Why does calling next() on an iterable object not work if I assign the generator function outside of __init__?</t>
+          <t>Remove columns which match some pattern in python</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                When trying to write a class that acts as an Iterator I came across a problem. To take a deeper look into this I wrote two classes that implement __next__() (I am aware that __iter__() is needed to ...
-            </t>
+          <t>I have a large csv files which have several columns as follows:+ M_15_19_yr_ M_19_25_yr_ M_25_35_yr_+ 20 34 12+ 09 21 19+ I want to remove such columns which start from M_{age1}_{age2}_yr. I tried ...</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>calvin</t>
+          <t>surviving-grad</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>73470534</t>
+          <t>73480966</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Looping over all XY plots in Abaqus Viewer</t>
+          <t>how can i import a function from another python file when the function is assigned to a variable name (ie from XYZ import f"{funcname}" [duplicate]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I have a script that does several cosmetic operations on XY plot in Abaqus Viewer. The problem is that the script takes the name of a particular plot and can't be used for all arbitrarily named plots ...
-            </t>
+          <t>So, i have some code that randomizes function names in another python file, it can find the function name just fine but how would i go about importing the function, ill better lay-out the question ...</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1759,28 +1642,24 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FEA-eng</t>
+          <t>Himikotiro</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>73470532</t>
+          <t>73480938</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>how to sequence the dataset into custom amount of data</t>
+          <t>Calculate sum of multiples rows with a value in another column, and store the new value in a new column</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                Hi I was just working on a dataset about crypto currency and i want to calculate slope based on different range of data in different time range
-from scipy.stats import linregress
-slope, intercept, ...
-            </t>
+          <t>I have a time series data where I would like to calculate sum of 4 quarters and divide the result with a value in another column. Here is my data example. In reality I will have 10K+ rows. df = pd....</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1790,78 +1669,71 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>shayanTH78</t>
+          <t>DNS</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>73470530</t>
+          <t>73480911</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>How do i print BOTH username and hostname to the console in python? [closed]</t>
+          <t>AtributeError: __enter__ in python</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I'm new to python.
-I want to print something like this:
-username/hostname
-Help appreciated.
-            </t>
+          <t>Performing a CRUD in python, I created the connection class where is two class methods: getConnection and getCursor, when I created the PersonDAO class and its class method called seleccionar and ...</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>GrandMarineLCS</t>
+          <t>Luishi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>73470503</t>
+          <t>73480900</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Opencv imencode result different from reading directly from bytes</t>
+          <t>Organizing a list of dictionaries in Python</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I'm currently using OpenCV's imencode to get a binary array into an image it can use. However, I've found that reading the bytes directly is different from opencv's imencode feature. I know this is ...
-            </t>
+          <t>I have a huge list of dictionaries with data labeled as follows {'id': 2,  'text': '"The hotel has many restaurants to enjoy a meal. My husband and I went to the Japanese restaurant and we only ...</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1871,83 +1743,72 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ZWang</t>
+          <t>bavarianbear</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>73470495</t>
+          <t>73480884</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>remove extra words from text</t>
+          <t>Need a solution so when I press Enter, turtle draws a different shape</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                ive been trying to remove extra words like {'by','the','and','of' ,'a'}
-from text so my best way to do it is like this .
-Code :
-def clean_text(text):
-    """
-    takes the text and ...
-            </t>
+          <t>The code I am trying to write needs to make 5 different shapes, which only one is included.   I am not worried about coding the other 4. What I need to know is how do I set it up so every time I press ...</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ImThePeak</t>
+          <t>Jose Diaz</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>73470494</t>
+          <t>73480869</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>How to trace lost data in grpc?</t>
+          <t>ValueError: time data does not match format '%Y-%m-%d %H:%M:%S'</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I have codes of grpc with a server(c++) and a client(python).
-But sometimes I find some pieces of data sent by server will be lost when client recieve while others are ok.
-What may be the reason?
-And ...
-            </t>
+          <t>I use twint for scraping data from twitter. Code as follows import twint import nest_asyncio nest_asyncio.apply()+  # Configure c = twint.Config() c.Limit = 500 c.Since = '2022-01-01' c.Until = '2022–...</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1962,35 +1823,29 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>f1msch</t>
+          <t>Raffi El</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>73470487</t>
+          <t>73480849</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>How do I store file names in a database in python?</t>
+          <t>Best practices for scheduling multiple jobs at different frequencies in a Python project?</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I am trying to get a list of files in a user specified directory to be saved to a database. What I have at the moment is :
-import os
-import sqlite3
-def get_list():
-    folder = input("Directory ...
-            </t>
+          <t>I have started scheduling a couple scripts in Python using launchd. All my imports are from the root directory, though, so unless I want to mess with sys.path (which feels like poor practice) I need ...</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2000,76 +1855,71 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isaac </t>
+          <t>Oliver R</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>73470447</t>
+          <t>73480847</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Write value to column if row string contain column name</t>
+          <t>Datetime.strptime format for 2022-08-24T04:57:17.065000+00:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I have a dataframe which contains many pre-defined column names. One column of this dataframe contains the name of these columns.
-I want to write the value 1 where the string name is equal to the ...
-            </t>
+          <t>We have the following string in a variable: date_variable = "2022-08-24T04:57:17.065000+00:00"  We would like to convert this to datetime. The following does not work: timestamp_formatted = ...</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Shem</t>
+          <t>Jack tileman</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>73470422</t>
+          <t>73480835</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Keras data augmentation layers in model or out of model</t>
+          <t>Sum percentages by condition</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                So this may be a silly question but how exactly do the preprocessing layers in keras work, especially in the context of as a part of the model itself. This being compared to preprocessing being ...
-            </t>
+          <t>everyone. I don't know how to solve this. I would like to sum the percentages according to the result. Let me explain; all the % values for example with result i -1 should be summed (leaving the sign ...</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2084,31 +1934,29 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Joshua Arenson</t>
+          <t>Prectux</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>73470409</t>
+          <t>73480827</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jupyter Save Hook not working after reinstalling python+pyenv</t>
+          <t>Difference in Methods for Merging Transformed PDF Pages in PyPDF2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I use a jupyter save hook to convert my notebooks into different formats which is defined in /Users/corrie/.jupyter/jupyter_notebook_config.py. This was all working fine until I recently reinstalled ...
-            </t>
+          <t>I'm attempting to create a function to add a bottom "margin" to pages in existing PDFs.  Those bottom margins then need to be populated with specific text determined by the file and page.  I ...</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2123,37 +1971,34 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Corrie</t>
+          <t>dewser_the_board</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>73470387</t>
+          <t>73480826</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Updating Document on couchdb with put requests</t>
+          <t>Generating a list of sequences without repeating elements from a panda dataframe using Python</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I am trying to update documents on couchdb documents and especially the id of the document, and all of that with a python put requests. But I don't know how to proceed.
-If someone has an idea, tell me ...
-            </t>
+          <t>I am trying to create a a list of sequences based on the following three columns panda table. The data table would look like: |FROM|OPERATION|TO| |   2|       10| 1| |   2|       11| 4| |   1|       ...</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2163,36 +2008,29 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Magnetic Kyubi</t>
+          <t>Jun Kataoka</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>73470381</t>
+          <t>73480774</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Popen does not take input from proc.communicate how to execute function that asks for a password with python?</t>
+          <t>Can I create a Middleware class in one app that handles requests in other apps on the site</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                text="odoo15"
-        message=text.encode()
-        proc = Popen(["psql",
-        "-h","localhost",
-        "-d", "database", 
-    ...
-            </t>
+          <t>In reading the, Middlware Documentation I can see I can write a middleware class that will see and has access to every request in my app, which is good. What if I want my Middleware to see and handle ...</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2202,40 +2040,34 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lea Teresa Neubert</t>
+          <t>Mike Oliver</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>73470375</t>
+          <t>73480771</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>what is a indentically labeled series objects in pandas dataframe</t>
+          <t>Tox installs the wrong dependencies</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I wrote:
-import pandas as pd
-df_name=pd.DataFrame({'CODE':['01','02','03','04'],
-'NAME':['MICK','DAVID','JEAN','CHERRY']})
-df_exp=pd.DataFrame({'TEST':['POST1','POST2','POST3','POST4','POST5','POST6'...
-            </t>
+          <t>py310-django32-oauthlib1 create: /mydirectory py310-django32-oauthlib1 create: /mydirectory/.tox/py310-django32-oauthlib1 py310-django32-oauthlib1 installdeps: oauthlib==1.1.2, django~=3.2.10, ....etc ...</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2245,7 +2077,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2255,27 +2087,24 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FBAB</t>
+          <t>wonton</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>73470327</t>
+          <t>73480741</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ValueError: time data '44.15:16:49' does not match format '[%d.%H:%M:%S]' (match)</t>
+          <t>Python dictionary where values are lists, how to remove Xth item from every list value</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                Here I am using Pandas to convert excel time string to Panda data time data. Here the time string is recorded in the format as 'day.hour:minite:seconds' The day is recorded as absolute number of days.
-...
-            </t>
+          <t>I have dictionary in the form of: dict_one =  { key2: [val1, val2, val3], key2: [val1, val2, val3] }  I want to remove 'val3' from every element in the dictionary. I believe this should be possible ...</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2285,36 +2114,34 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Roy Dai</t>
+          <t>Adam Gold</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>73470320</t>
+          <t>73480737</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>How to extract specific text from JSON response</t>
+          <t>is it possible that an 8 puzzle is unsolvable</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I am using the Twitter API to source tweets, and am using their provided GitHub example. However, the tweets are given in a JSON format. How can I extract one part (specifically the text and tag) and ...
-            </t>
+          <t>I am trying to create a python program that solves the famous 8 puzzle, and am not entirely sure if i understand this correctly but how do i check if the 8 puzzle is solvable I tried the inversion ...</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2324,36 +2151,34 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Max Allen</t>
+          <t>omar mostafa</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>73470317</t>
+          <t>73480734</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Good off the shelve python package for traffic sign detection [closed]</t>
+          <t>How to send a list of emails using python and how to add image to my email</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                Is there a python package off the shelve that can get camera images and detect what traffic sign is in them ?
-            </t>
+          <t>I have a list of email but I dont know how to send it. I used this code but its not working. Also, I would like to know how to add an image. reading the spreadsheet email_list = pd.read_excel('path') ...</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2368,71 +2193,66 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>azerila</t>
+          <t>Matheus Neves</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>73470302</t>
+          <t>73480729</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>it is showing an error i am trying to move my images into folders with labels</t>
+          <t>How do you get a cross section of data from a Pandas dataframe with a key for a MultiIndex?</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I have a dataset with multiple images and a csv file with one column having the name of the images and the other having the labels. I want to put the images in label folder but I am unable to do so. ...
-            </t>
+          <t>I have a dataframe like this A, B, C d, 1, 2 d, 3, 4 e, 5, 6 e, 7, 8  I am trying to get B, C 1, 2 3, 4  and B, C 5, 6 7, 8  By iterating through d, e, etc. I can get the keys just fine looping though ...</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>shivam234556</t>
+          <t>John Glen</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>73470263</t>
+          <t>73480719</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>How to add items to ManyToMany field from Queryset</t>
+          <t>Leetcode difference between submission and console answer checking</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                What I am trying to achieve is to get the title that the user inserted in the form and save it in all components that are currently in the cart.
-This piece of code contains the items that are ...
-            </t>
+          <t>I have some code for Leetcode question 2266. (Python) https://leetcode.com/problems/count-number-of-texts/ class Solution:     def countTexts(self, pressedKeys: str) -&gt; int:         # steps:        ...</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2442,42 +2262,39 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>pew</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>73470262</t>
+          <t>73480711</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>OpenCV Python :</t>
+          <t>List Index Out of Range on Function except the index shouldn't be out of range</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-                I am trying to implement a color correction algorithm in python using this c++ code as a reference : https://docs.opencv.org/4.x/d1/dc1/tutorial_ccm_color_correction_model.html
-Here is the code so far ...
-            </t>
+          <t>I am working on a small function to assign random stats for a tabletop game I'm playing.  I'm fairly certain my code is clunky and I have variables I could probably merge somewhere.  I'm pretty new to ...</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2487,12 +2304,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Rorschy</t>
+          <t>Xiael</t>
         </is>
       </c>
     </row>
